--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2841.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2841.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.170837091405635</v>
+        <v>1.179822325706482</v>
       </c>
       <c r="B1">
-        <v>2.443094457759275</v>
+        <v>2.148978471755981</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.370490074157715</v>
       </c>
       <c r="D1">
-        <v>2.361748749997373</v>
+        <v>2.778959274291992</v>
       </c>
       <c r="E1">
-        <v>1.235101990950168</v>
+        <v>1.221700072288513</v>
       </c>
     </row>
   </sheetData>
